--- a/documents/DB定義書_D2.xlsx
+++ b/documents/DB定義書_D2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{455FBFC0-4966-46D2-AD0C-917C4B491C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080094AB-0436-49A8-998E-2B0CEACAEA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="22620" windowHeight="12492" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="252" yWindow="312" windowWidth="22620" windowHeight="12492" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="90">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -555,6 +555,16 @@
   </si>
   <si>
     <t>ans-date date,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答日付</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1479,7 +1489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1946,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30920C8-FA4B-438E-8F0E-FC00E9543F8D}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="137" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="A7" zoomScale="137" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2481,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE80CC6-E75E-45EF-BFD0-FA6F156D2311}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="142" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A4" zoomScale="142" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2732,9 +2744,9 @@
         <v>0</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>user-id int  ,</v>
+      <c r="L14" t="e">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -2742,17 +2754,15 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="3">
-        <v>30</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
@@ -2768,21 +2778,13 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="s">
@@ -2980,6 +2982,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/documents/DB定義書_D2.xlsx
+++ b/documents/DB定義書_D2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080094AB-0436-49A8-998E-2B0CEACAEA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64102931-1A5B-41D3-BDFA-363C29B8D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="312" windowWidth="22620" windowHeight="12492" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={98F9FAB2-9998-46C8-8ADB-DB625BE34EF0}</author>
+  </authors>
+  <commentList>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{98F9FAB2-9998-46C8-8ADB-DB625BE34EF0}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    更新時に日付も更新</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={266BD482-7A1D-4EE7-B415-FABFAA2C5448}</author>
+  </authors>
+  <commentList>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{266BD482-7A1D-4EE7-B415-FABFAA2C5448}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    更新時に日付も更新</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="90">
   <si>
@@ -576,7 +612,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,6 +636,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -706,76 +749,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>176134</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>88992</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381653</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>56428</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E62287-FA3B-6D4B-A8AF-9B8DA5F6A798}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1883681" y="3492963"/>
-          <a:ext cx="2636133" cy="912983"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -70540"/>
-            <a:gd name="adj2" fmla="val -68079"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>更新があった場合はどうしましょう？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="乘川　和輝" id="{F114CACA-3C6D-49CC-A912-283DC6C849C2}" userId="S::norikawa@seplus2016.onmicrosoft.com::71adcb38-6227-4003-a6a4-9b0eab2ce222" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1097,6 +1074,22 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B18" dT="2021-06-08T01:02:33.35" personId="{F114CACA-3C6D-49CC-A912-283DC6C849C2}" id="{98F9FAB2-9998-46C8-8ADB-DB625BE34EF0}">
+    <text>更新時に日付も更新</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B15" dT="2021-06-08T01:03:02.84" personId="{F114CACA-3C6D-49CC-A912-283DC6C849C2}" id="{266BD482-7A1D-4EE7-B415-FABFAA2C5448}">
+    <text>更新時に日付も更新</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
@@ -1104,25 +1097,25 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.4" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.4" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.4" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1134,7 +1127,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.4" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1146,19 +1139,19 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.4" customHeight="1">
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.4" customHeight="1">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.4" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1175,7 +1168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.4" customHeight="1">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1190,7 +1183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.4" customHeight="1">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1205,7 +1198,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.4" customHeight="1">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1220,7 +1213,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.4" customHeight="1">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1235,7 +1228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.4" customHeight="1">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1244,7 +1237,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.4" customHeight="1">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1253,7 +1246,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.4" customHeight="1">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1262,7 +1255,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.4" customHeight="1">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1271,7 +1264,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.4" customHeight="1">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1280,7 +1273,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="15.4" customHeight="1">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1289,7 +1282,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="15.4" customHeight="1">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1298,7 +1291,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="15.4" customHeight="1">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1307,7 +1300,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="15.4" customHeight="1">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1316,7 +1309,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="15.4" customHeight="1">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1325,7 +1318,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="15.4" customHeight="1">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1334,7 +1327,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="15.4" customHeight="1">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1343,7 +1336,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="15.4" customHeight="1">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1352,7 +1345,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="15.4" customHeight="1">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1361,7 +1354,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="15.4" customHeight="1">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1370,7 +1363,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="15.4" customHeight="1">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1379,7 +1372,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="15.4" customHeight="1">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1388,7 +1381,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="15.4" customHeight="1">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1397,7 +1390,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="15.4" customHeight="1">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1406,7 +1399,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="15.4" customHeight="1">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1415,7 +1408,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="15.4" customHeight="1">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1424,7 +1417,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" ht="15.4" customHeight="1">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1433,7 +1426,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" ht="15.4" customHeight="1">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1442,7 +1435,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" ht="15.4" customHeight="1">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1451,7 +1444,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" ht="15.4" customHeight="1">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1460,7 +1453,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" ht="15.4" customHeight="1">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1469,7 +1462,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" ht="15.4" customHeight="1">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1489,29 +1482,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.4" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.4" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.4" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1525,7 +1518,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.4" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1539,7 +1532,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.4" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1553,7 +1546,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.4" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,7 +1560,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.4" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1603,7 +1596,7 @@
         <v>create table Users (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.4" customHeight="1">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1635,7 +1628,7 @@
         <v>user-id int  ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.4" customHeight="1">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1663,7 +1656,7 @@
         <v>user-name varchar  (30),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.4" customHeight="1">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1691,7 +1684,7 @@
         <v>user-pw varchar  (30),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.4" customHeight="1">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1718,7 +1711,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15.4" customHeight="1">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1735,7 +1728,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15.4" customHeight="1">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1752,7 +1745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15.4" customHeight="1">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1766,7 +1759,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.4" customHeight="1">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1780,7 +1773,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.4" customHeight="1">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1794,7 +1787,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.4" customHeight="1">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1808,7 +1801,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.4" customHeight="1">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1822,7 +1815,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.4" customHeight="1">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1836,7 +1829,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.4" customHeight="1">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1850,7 +1843,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.4" customHeight="1">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1864,7 +1857,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.4" customHeight="1">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1878,7 +1871,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.4" customHeight="1">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1892,7 +1885,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.4" customHeight="1">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1906,7 +1899,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.4" customHeight="1">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1920,7 +1913,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.4" customHeight="1">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1934,7 +1927,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.4" customHeight="1">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1955,32 +1948,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30920C8-FA4B-438E-8F0E-FC00E9543F8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30920C8-FA4B-438E-8F0E-FC00E9543F8D}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="137" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="137" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.4" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.4" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.4" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1994,7 +1987,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.4" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2008,7 +2001,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.4" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2022,7 +2015,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.4" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2036,7 +2029,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.4" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2072,7 +2065,7 @@
         <v>create table Questions (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.4" customHeight="1">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2104,7 +2097,7 @@
         <v>que-id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.4" customHeight="1">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2132,7 +2125,7 @@
         <v>que-category varchar  (20),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.4" customHeight="1">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2160,7 +2153,7 @@
         <v>que-title varchar  (100),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.4" customHeight="1">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2188,7 +2181,7 @@
         <v>que-contents varchar  (255),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15.4" customHeight="1">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2214,7 +2207,7 @@
         <v>que-file varchar  (255),</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15.4" customHeight="1">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2241,7 +2234,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15.4" customHeight="1">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2270,7 +2263,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15.4" customHeight="1">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2297,7 +2290,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15.4" customHeight="1">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2322,7 +2315,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.4" customHeight="1">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2339,7 +2332,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15.4" customHeight="1">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2356,7 +2349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15.4" customHeight="1">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2370,7 +2363,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15.4" customHeight="1">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2384,7 +2377,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15.4" customHeight="1">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2398,7 +2391,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="15.4" customHeight="1">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2412,7 +2405,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.4" customHeight="1">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2426,7 +2419,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="15.4" customHeight="1">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2440,7 +2433,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="15.4" customHeight="1">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2454,7 +2447,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="15.4" customHeight="1">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2468,7 +2461,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="15.4" customHeight="1">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2485,37 +2478,38 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE80CC6-E75E-45EF-BFD0-FA6F156D2311}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE80CC6-E75E-45EF-BFD0-FA6F156D2311}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="142" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:F20"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.149999999999999" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2529,7 +2523,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2543,7 +2537,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2557,7 +2551,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2571,7 +2565,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2607,7 +2601,7 @@
         <v>create table Answers (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2639,7 +2633,7 @@
         <v>ans-id int  ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2667,7 +2661,7 @@
         <v>que-id int  ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2695,7 +2689,7 @@
         <v>ans-contents varchar (255),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2721,7 +2715,7 @@
         <v>ans-file varchar (255),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2749,7 +2743,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2774,7 +2768,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2791,7 +2785,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2808,7 +2802,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2825,7 +2819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2839,7 +2833,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2853,7 +2847,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2867,7 +2861,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2881,7 +2875,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2895,7 +2889,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2909,7 +2903,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2923,7 +2917,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2937,7 +2931,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2951,7 +2945,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2965,7 +2959,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2983,6 +2977,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2994,25 +2989,25 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.4" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.4" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.4" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3026,7 +3021,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.4" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3040,7 +3035,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.4" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3054,7 +3049,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.4" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3068,7 +3063,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.4" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3104,7 +3099,7 @@
         <v>create table Histories (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.4" customHeight="1">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3136,7 +3131,7 @@
         <v>his-id int  ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.4" customHeight="1">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3164,7 +3159,7 @@
         <v>user-id int  ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.4" customHeight="1">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3192,7 +3187,7 @@
         <v>que-id int  ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.4" customHeight="1">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3220,7 +3215,7 @@
         <v xml:space="preserve">ans-id int  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15.4" customHeight="1">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3237,7 +3232,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15.4" customHeight="1">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3254,7 +3249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15.4" customHeight="1">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3268,7 +3263,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.4" customHeight="1">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3282,7 +3277,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.4" customHeight="1">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3296,7 +3291,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.4" customHeight="1">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3310,7 +3305,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.4" customHeight="1">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3324,7 +3319,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.4" customHeight="1">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3338,7 +3333,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.4" customHeight="1">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3352,7 +3347,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.4" customHeight="1">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3366,7 +3361,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.4" customHeight="1">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3380,7 +3375,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.4" customHeight="1">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3394,7 +3389,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.4" customHeight="1">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3408,7 +3403,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.4" customHeight="1">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3422,7 +3417,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.4" customHeight="1">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3436,7 +3431,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.4" customHeight="1">
       <c r="A29" s="3">
         <v>20</v>
       </c>

--- a/documents/DB定義書_D2.xlsx
+++ b/documents/DB定義書_D2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64102931-1A5B-41D3-BDFA-363C29B8D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED41B60-51F3-42A5-8112-5A356BF7E25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5652" yWindow="480" windowWidth="14892" windowHeight="12252" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="90">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -328,18 +328,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user-id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user-name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>f-tag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問ID</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -426,14 +414,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user-pw</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user-mail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user-mail varchar  (50),</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -449,42 +429,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>que-id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>que-category</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>que-title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>que-contents</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>que-file</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ans-id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ans-contents</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ans-file</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>his-id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>primary key  (his-id)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -537,14 +481,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>que-count</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>que-date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問参照回数</t>
     <rPh sb="0" eb="4">
       <t>シツモンサンショウ</t>
@@ -586,10 +522,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ans-date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ans-date date,</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -601,6 +533,74 @@
     <rPh sb="2" eb="4">
       <t>ヒヅケ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_pw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_mail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>que_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>que_category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>que_title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>que_contents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>que_file</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f_tag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>que_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>que_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ans_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ans_contents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ans_file</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ans_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>his_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -612,7 +612,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,11 +638,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -701,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,6 +740,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1101,21 +1135,21 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="58.625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.4" customHeight="1">
+    <row r="1" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.4" customHeight="1">
+    <row r="2" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1124,10 +1158,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.4" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1139,19 +1173,19 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="15.4" customHeight="1">
+    <row r="4" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.4" customHeight="1">
+    <row r="5" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="15.4" customHeight="1">
+    <row r="7" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1168,7 +1202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.4" customHeight="1">
+    <row r="8" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1183,7 +1217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.4" customHeight="1">
+    <row r="9" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1191,14 +1225,14 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.4" customHeight="1">
+    <row r="10" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1206,14 +1240,14 @@
         <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.4" customHeight="1">
+    <row r="11" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1221,14 +1255,14 @@
         <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.4" customHeight="1">
+    <row r="12" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1237,7 +1271,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="15.4" customHeight="1">
+    <row r="13" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1246,7 +1280,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="15.4" customHeight="1">
+    <row r="14" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1255,7 +1289,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="15.4" customHeight="1">
+    <row r="15" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1264,7 +1298,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="15.4" customHeight="1">
+    <row r="16" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1273,7 +1307,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" ht="15.4" customHeight="1">
+    <row r="17" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1282,7 +1316,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" ht="15.4" customHeight="1">
+    <row r="18" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1291,7 +1325,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" ht="15.4" customHeight="1">
+    <row r="19" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1300,7 +1334,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" ht="15.4" customHeight="1">
+    <row r="20" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1309,7 +1343,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" ht="15.4" customHeight="1">
+    <row r="21" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1318,7 +1352,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" ht="15.4" customHeight="1">
+    <row r="22" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1327,7 +1361,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" ht="15.4" customHeight="1">
+    <row r="23" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1336,7 +1370,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" ht="15.4" customHeight="1">
+    <row r="24" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1345,7 +1379,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" ht="15.4" customHeight="1">
+    <row r="25" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1354,7 +1388,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" ht="15.4" customHeight="1">
+    <row r="26" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1363,7 +1397,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" ht="15.4" customHeight="1">
+    <row r="27" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1372,7 +1406,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" ht="15.4" customHeight="1">
+    <row r="28" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1381,7 +1415,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" ht="15.4" customHeight="1">
+    <row r="29" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1390,7 +1424,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" ht="15.4" customHeight="1">
+    <row r="30" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1399,7 +1433,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" ht="15.4" customHeight="1">
+    <row r="31" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1408,7 +1442,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" ht="15.4" customHeight="1">
+    <row r="32" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1417,7 +1451,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" ht="15.4" customHeight="1">
+    <row r="33" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1426,7 +1460,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" ht="15.4" customHeight="1">
+    <row r="34" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1435,7 +1469,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" ht="15.4" customHeight="1">
+    <row r="35" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1444,7 +1478,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" ht="15.4" customHeight="1">
+    <row r="36" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1453,7 +1487,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" ht="15.4" customHeight="1">
+    <row r="37" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1462,7 +1496,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" ht="15.4" customHeight="1">
+    <row r="38" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1482,29 +1516,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.125" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.75" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.4" customHeight="1">
+    <row r="1" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.4" customHeight="1">
+    <row r="2" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1513,12 +1547,12 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="15.4" customHeight="1">
+    <row r="3" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1532,7 +1566,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="15.4" customHeight="1">
+    <row r="4" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1546,7 +1580,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="15.4" customHeight="1">
+    <row r="5" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1560,7 +1594,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="15.4" customHeight="1">
+    <row r="9" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1596,7 +1630,7 @@
         <v>create table Users (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.4" customHeight="1">
+    <row r="10" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1604,7 +1638,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>35</v>
@@ -1616,19 +1650,17 @@
       <c r="G10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user-id int  ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.4" customHeight="1">
+        <v>user_id int  ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1636,7 +1668,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>36</v>
@@ -1653,10 +1685,10 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user-name varchar  (30),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.4" customHeight="1">
+        <v>user_name varchar  (30),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1664,7 +1696,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>36</v>
@@ -1681,10 +1713,10 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user-pw varchar  (30),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.4" customHeight="1">
+        <v>user_pw varchar  (30),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1692,7 +1724,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>36</v>
@@ -1708,10 +1740,10 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.4" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1728,7 +1760,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.4" customHeight="1">
+    <row r="15" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1745,7 +1777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.4" customHeight="1">
+    <row r="16" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1759,7 +1791,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="15.4" customHeight="1">
+    <row r="17" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1773,7 +1805,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="15.4" customHeight="1">
+    <row r="18" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1787,7 +1819,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="15.4" customHeight="1">
+    <row r="19" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1801,7 +1833,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="15.4" customHeight="1">
+    <row r="20" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1815,7 +1847,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="15.4" customHeight="1">
+    <row r="21" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1829,7 +1861,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="15.4" customHeight="1">
+    <row r="22" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1843,7 +1875,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="15.4" customHeight="1">
+    <row r="23" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1857,7 +1889,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="15.4" customHeight="1">
+    <row r="24" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1871,7 +1903,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="15.4" customHeight="1">
+    <row r="25" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1885,7 +1917,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="15.4" customHeight="1">
+    <row r="26" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1899,7 +1931,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="15.4" customHeight="1">
+    <row r="27" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1913,7 +1945,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="15.4" customHeight="1">
+    <row r="28" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1927,7 +1959,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="15.4" customHeight="1">
+    <row r="29" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1951,29 +1983,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30920C8-FA4B-438E-8F0E-FC00E9543F8D}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="137" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.125" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.75" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.4" customHeight="1">
+    <row r="1" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.4" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1982,12 +2014,12 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="15.4" customHeight="1">
+    <row r="3" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2001,12 +2033,12 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="15.4" customHeight="1">
+    <row r="4" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2015,12 +2047,12 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="15.4" customHeight="1">
+    <row r="5" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2029,7 +2061,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="15.4" customHeight="1">
+    <row r="9" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2065,18 +2097,18 @@
         <v>create table Questions (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.4" customHeight="1">
+    <row r="10" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -2085,27 +2117,25 @@
       <c r="G10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>que-id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.4" customHeight="1">
+        <v>que_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>36</v>
@@ -2122,18 +2152,18 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>que-category varchar  (20),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.4" customHeight="1">
+        <v>que_category varchar  (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>36</v>
@@ -2150,24 +2180,24 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>que-title varchar  (100),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.4" customHeight="1">
+        <v>que_title varchar  (100),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="3">
-        <v>255</v>
+        <v>500</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2178,18 +2208,18 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>que-contents varchar  (255),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.4" customHeight="1">
+        <v>que_contents varchar  (500),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>36</v>
@@ -2204,10 +2234,10 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>que-file varchar  (255),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.4" customHeight="1">
+        <v>que_file varchar  (255),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2215,10 +2245,10 @@
         <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2231,21 +2261,21 @@
       </c>
       <c r="J15" s="3"/>
       <c r="L15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.4" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2257,24 +2287,24 @@
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.4" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2287,21 +2317,21 @@
       </c>
       <c r="J17" s="3"/>
       <c r="L17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.4" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2312,10 +2342,10 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.4" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2329,10 +2359,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.4" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2349,7 +2379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.4" customHeight="1">
+    <row r="21" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2363,7 +2393,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="15.4" customHeight="1">
+    <row r="22" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2377,7 +2407,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="15.4" customHeight="1">
+    <row r="23" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2391,7 +2421,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="15.4" customHeight="1">
+    <row r="24" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2405,7 +2435,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="15.4" customHeight="1">
+    <row r="25" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2419,7 +2449,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="15.4" customHeight="1">
+    <row r="26" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2433,7 +2463,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="15.4" customHeight="1">
+    <row r="27" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2447,7 +2477,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="15.4" customHeight="1">
+    <row r="28" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2461,7 +2491,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="15.4" customHeight="1">
+    <row r="29" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2487,29 +2517,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE80CC6-E75E-45EF-BFD0-FA6F156D2311}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.149999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.125" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.75" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="1" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.149999999999999" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2518,12 +2548,12 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="3" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2537,12 +2567,12 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="4" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2551,12 +2581,12 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="5" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2565,7 +2595,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="9" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2601,15 +2631,15 @@
         <v>create table Answers (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="10" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>35</v>
@@ -2621,27 +2651,25 @@
       <c r="G10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>ans-id int  ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="16.149999999999999" customHeight="1">
+        <v>ans_id int  ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>35</v>
@@ -2658,24 +2686,24 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>que-id int  ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="16.149999999999999" customHeight="1">
+        <v>que_id int  ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E12" s="3">
-        <v>255</v>
+        <v>500</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2686,21 +2714,21 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>ans-contents varchar (255),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.149999999999999" customHeight="1">
+        <v>ans_contents varchar (500),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3">
         <v>255</v>
@@ -2712,10 +2740,10 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>ans-file varchar (255),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="16.149999999999999" customHeight="1">
+        <v>ans_file varchar (255),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2723,7 +2751,7 @@
         <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>35</v>
@@ -2743,18 +2771,18 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="15" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2765,10 +2793,10 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="16.149999999999999" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2782,10 +2810,10 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="16.149999999999999" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2799,10 +2827,10 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="16.149999999999999" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2819,7 +2847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="19" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2833,7 +2861,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="20" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2847,7 +2875,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="21" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2861,7 +2889,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="22" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2875,7 +2903,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="23" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2889,7 +2917,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="24" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2903,7 +2931,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="25" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2917,7 +2945,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="26" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2931,7 +2959,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="27" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2945,7 +2973,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="28" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2959,7 +2987,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="29" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2985,468 +3013,469 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE14650-DB62-4EC5-9B87-55F131BB0F93}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.125" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.75" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="11"/>
+    <col min="2" max="2" width="16.109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.77734375" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="8.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.4" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.4" customHeight="1">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.4" customHeight="1">
-      <c r="B3" s="1" t="s">
+      <c r="E2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.4" customHeight="1">
-      <c r="B4" s="1" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.4" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.4" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="6" t="str">
+      <c r="L9" s="17" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
         <v>create table Histories (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.4" customHeight="1">
-      <c r="A10" s="3">
+    <row r="10" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="14"/>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="L10" s="11" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>his_id int  ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>2</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I11" s="14">
         <v>0</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>his-id int  ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.4" customHeight="1">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="J11" s="14"/>
+      <c r="L11" s="11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id int  ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>3</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="C12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I12" s="14">
         <v>0</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user-id int  ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.4" customHeight="1">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="J12" s="14"/>
+      <c r="L12" s="11" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>que_id int  ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>4</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I13" s="14">
         <v>0</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>que-id int  ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.4" customHeight="1">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
+      <c r="J13" s="14"/>
+      <c r="L13" s="11" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">ans-id int  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.4" customHeight="1">
-      <c r="A14" s="3">
+        <v xml:space="preserve">ans_id int  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.4" customHeight="1">
-      <c r="A15" s="3">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="L14" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="L15" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.4" customHeight="1">
-      <c r="A16" s="3">
+    <row r="16" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.4" customHeight="1">
-      <c r="A17" s="3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.4" customHeight="1">
-      <c r="A18" s="3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.4" customHeight="1">
-      <c r="A19" s="3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.4" customHeight="1">
-      <c r="A20" s="3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.4" customHeight="1">
-      <c r="A21" s="3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.4" customHeight="1">
-      <c r="A22" s="3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.4" customHeight="1">
-      <c r="A23" s="3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
         <v>14</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.4" customHeight="1">
-      <c r="A24" s="3">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.4" customHeight="1">
-      <c r="A25" s="3">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
         <v>16</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.4" customHeight="1">
-      <c r="A26" s="3">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
         <v>17</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.4" customHeight="1">
-      <c r="A27" s="3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
         <v>18</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.4" customHeight="1">
-      <c r="A28" s="3">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
         <v>19</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.4" customHeight="1">
-      <c r="A29" s="3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
         <v>20</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/DB定義書_D2.xlsx
+++ b/documents/DB定義書_D2.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED41B60-51F3-42A5-8112-5A356BF7E25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E350897C-DFE6-45B8-AEC9-A3AC9FC1690D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5652" yWindow="480" windowWidth="14892" windowHeight="12252" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="Users" sheetId="2" r:id="rId2"/>
     <sheet name="Questions" sheetId="3" r:id="rId3"/>
     <sheet name="Answers" sheetId="4" r:id="rId4"/>
-    <sheet name="Histories" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="84">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -239,13 +238,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>履歴データ</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Users</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -283,16 +275,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>履歴情報を管理</t>
-    <rPh sb="0" eb="4">
-      <t>リレキジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -422,17 +404,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>履歴ID</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>primary key  (his-id)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user-name varchar(30),</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -456,17 +427,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Histories</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>履歴マスタ</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>回答マスタ</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
@@ -600,7 +560,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>his_id</t>
+    <t>KnowledgeHolder</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -612,7 +572,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,23 +591,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -711,7 +654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,30 +683,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1129,39 +1048,39 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1171,21 +1090,23 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="8">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1202,7 +1123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1210,14 +1131,14 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1225,14 +1146,14 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1240,29 +1161,23 @@
         <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1271,7 +1186,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1280,7 +1195,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1289,7 +1204,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1298,7 +1213,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1307,7 +1222,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1316,7 +1231,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1325,7 +1240,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1334,7 +1249,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1343,7 +1258,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1352,7 +1267,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1361,7 +1276,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1370,7 +1285,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1379,7 +1294,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1388,7 +1303,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1397,7 +1312,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1406,7 +1321,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1415,7 +1330,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1424,7 +1339,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1433,7 +1348,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1442,7 +1357,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1451,7 +1366,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1460,7 +1375,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1469,7 +1384,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1478,7 +1393,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1487,7 +1402,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1495,15 +1410,6 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="3">
-        <v>31</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1516,29 +1422,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1547,12 +1453,12 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1566,7 +1472,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1580,12 +1486,12 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1594,7 +1500,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1630,25 +1536,25 @@
         <v>create table Users (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3">
@@ -1660,18 +1566,18 @@
         <v>user_id int  ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3">
         <v>30</v>
@@ -1679,7 +1585,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1688,18 +1594,18 @@
         <v>user_name varchar  (30),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -1707,7 +1613,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1716,18 +1622,18 @@
         <v>user_pw varchar  (30),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E13" s="3">
         <v>50</v>
@@ -1735,15 +1641,15 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1757,10 +1663,10 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1777,7 +1683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1791,7 +1697,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1805,7 +1711,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1819,7 +1725,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1833,7 +1739,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1847,7 +1753,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1861,7 +1767,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1875,7 +1781,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1889,7 +1795,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1903,7 +1809,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1917,7 +1823,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1931,7 +1837,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1945,7 +1851,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1959,7 +1865,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1987,25 +1893,25 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2014,12 +1920,12 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2033,12 +1939,12 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2047,12 +1953,12 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2061,7 +1967,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2097,25 +2003,25 @@
         <v>create table Questions (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3">
@@ -2127,18 +2033,18 @@
         <v>que_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2146,7 +2052,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2155,18 +2061,18 @@
         <v>que_category varchar  (20),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -2174,7 +2080,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2183,18 +2089,18 @@
         <v>que_title varchar  (100),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3">
         <v>500</v>
@@ -2202,7 +2108,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2211,18 +2117,18 @@
         <v>que_contents varchar  (500),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="3">
         <v>255</v>
@@ -2237,115 +2143,115 @@
         <v>que_file varchar  (255),</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3"/>
       <c r="L15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3"/>
       <c r="L17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2359,10 +2265,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2379,7 +2285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2393,7 +2299,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2407,7 +2313,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2421,7 +2327,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2435,7 +2341,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2449,7 +2355,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2463,7 +2369,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2477,7 +2383,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2491,7 +2397,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2521,25 +2427,25 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2548,12 +2454,12 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2567,12 +2473,12 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2581,12 +2487,12 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2595,7 +2501,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2631,25 +2537,25 @@
         <v>create table Answers (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3">
@@ -2661,24 +2567,24 @@
         <v>ans_id int  ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -2689,18 +2595,18 @@
         <v>que_id int  ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3">
         <v>500</v>
@@ -2708,7 +2614,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2717,18 +2623,18 @@
         <v>ans_contents varchar (500),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E13" s="3">
         <v>255</v>
@@ -2743,24 +2649,24 @@
         <v>ans_file varchar (255),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -2771,32 +2677,32 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2810,10 +2716,10 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2827,10 +2733,10 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2847,7 +2753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2861,7 +2767,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2875,7 +2781,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2889,7 +2795,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2903,7 +2809,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2917,7 +2823,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2931,7 +2837,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2945,7 +2851,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2959,7 +2865,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2973,7 +2879,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2987,7 +2893,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3007,475 +2913,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE14650-DB62-4EC5-9B87-55F131BB0F93}">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.77734375" style="11"/>
-    <col min="2" max="2" width="16.109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.77734375" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="8.77734375" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="17" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Histories (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
-        <v>1</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="L10" s="11" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>his_id int  ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
-        <v>2</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="L11" s="11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id int  ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
-        <v>3</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14"/>
-      <c r="L12" s="11" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>que_id int  ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
-        <v>4</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="L13" s="11" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">ans_id int  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
-        <v>5</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="L14" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
-        <v>6</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="L15" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
-        <v>7</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
-        <v>8</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
-        <v>9</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
-        <v>10</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
-        <v>11</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
-        <v>12</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
-        <v>13</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14">
-        <v>14</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14">
-        <v>15</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
-        <v>16</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14">
-        <v>17</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
-        <v>18</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14">
-        <v>19</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14">
-        <v>20</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>